--- a/_files/student_grades_g5.xlsx
+++ b/_files/student_grades_g5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\Documents\PROGRAMMING\___CSS Projects\0001- Website Moni\0026_Monica (Grade Displayer - various excel files)\_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35183CB8-9495-47C6-908A-753123D7EF9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31E8549-C934-480A-8CD4-5737E09E9943}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5508" yWindow="2952" windowWidth="17280" windowHeight="8964" xr2:uid="{4EDCD29F-F752-4477-86EA-5BFA1BD71943}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4EDCD29F-F752-4477-86EA-5BFA1BD71943}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="50">
   <si>
     <t>0001028820</t>
   </si>
@@ -168,6 +168,21 @@
   </si>
   <si>
     <t>&lt;span&gt;Guía #4 - &lt;/span&gt;  Fracción de un número</t>
+  </si>
+  <si>
+    <t>Lorem ipsum.</t>
+  </si>
+  <si>
+    <t>Ipsum lorem.</t>
+  </si>
+  <si>
+    <t>Comentario.</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #1 </t>
   </si>
 </sst>
 </file>
@@ -750,8 +765,8 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N2" sqref="N2"/>
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -816,7 +831,7 @@
       </c>
       <c r="B2" s="15">
         <f ca="1">TODAY()</f>
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>38</v>
@@ -871,19 +886,27 @@
       <c r="D3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="F3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="13"/>
+      <c r="G3" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="H3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="13"/>
+      <c r="I3" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="J3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="13"/>
+      <c r="K3" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="L3" s="4" t="s">
         <v>30</v>
       </c>
@@ -891,7 +914,9 @@
       <c r="N3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="13"/>
+      <c r="O3" s="13" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="4" spans="1:15" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">

--- a/_files/student_grades_g5.xlsx
+++ b/_files/student_grades_g5.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\Documents\PROGRAMMING\___CSS Projects\0001- Website Moni\0026_Monica (Grade Displayer - various excel files)\_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31E8549-C934-480A-8CD4-5737E09E9943}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4EDCD29F-F752-4477-86EA-5BFA1BD71943}"/>
+    <workbookView xWindow="-5505" yWindow="2955" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="58">
   <si>
     <t>0001028820</t>
   </si>
@@ -134,9 +134,6 @@
     <t>4.0</t>
   </si>
   <si>
-    <t>3.5</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -170,25 +167,52 @@
     <t>&lt;span&gt;Guía #4 - &lt;/span&gt;  Fracción de un número</t>
   </si>
   <si>
-    <t>Lorem ipsum.</t>
-  </si>
-  <si>
-    <t>Ipsum lorem.</t>
-  </si>
-  <si>
-    <t>Comentario.</t>
+    <t>Juan debes tener cuidado a la hora de realizar las divisiones ya que no estas poniendo el cero en el cociente cuando bajas un cero y no puedes seguir dividiendo. Así mismo debes prestar atención a las tablas de multiplicar.</t>
+  </si>
+  <si>
+    <t>Juan es importante que revises la parte de conversión de fracciones mixtas a fracciones impropias, creo que algo esta pasando cuando haces la división porque los resultados no estan bien.</t>
+  </si>
+  <si>
+    <t>Juan debes revisar la parte de graficación de fracciones impropias ya que las estas graficando como si fueran propias.</t>
+  </si>
+  <si>
+    <t>María debes repasar la parte de escritura de fracciones impropias y mixtas a partir del gráfico ya que lo estas haciendo mal.</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>Emi debes tener cuidado cuando escribes las fracciones mixtas a partir de las graficas ya que cometiste algunos errores al escribir la parte de la fracción. Así mismo es importante que repases la parte de conversión de una fracción impropia a mixta, creo que pasa algo cuando hces la división ya que las respuestas son incorrectas.</t>
+  </si>
+  <si>
+    <t>María tienes pequeños errores que puedes evitar, por ejemplo en el tercer punto en la A no restaste el número entero con el resultado de la fracción si no que restaste el resultado d ela multiplicación con el resultado de la división. Así mismo en el punto dos en la C tienes un error en la multiplicación del numerador con el número entero. Son pequeños detalles que te dañan el resultado de las operaciones.</t>
+  </si>
+  <si>
+    <t>#1</t>
   </si>
   <si>
     <t>#2</t>
   </si>
   <si>
-    <t xml:space="preserve"> #1 </t>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>Juan al graficar las fracciones puedes hacerlo de más ordenada y estética</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -283,7 +307,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCC0DA"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,9 +424,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -439,6 +460,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -761,26 +785,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9C651C-DE2B-48EF-855C-478E0DB36FE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" customWidth="1"/>
-    <col min="4" max="14" width="12.77734375" customWidth="1"/>
-    <col min="15" max="15" width="13.21875" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -789,91 +813,91 @@
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="14">
+        <f ca="1">TODAY()</f>
+        <v>43959</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="F2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="H2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="J2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="L2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>37</v>
+      <c r="N2" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="15">
-        <f ca="1">TODAY()</f>
-        <v>43958</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -886,39 +910,39 @@
       <c r="D3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>45</v>
-      </c>
+      <c r="E3" s="12"/>
       <c r="F3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>46</v>
+      <c r="G3" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>47</v>
+      <c r="I3" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="13" t="s">
-        <v>49</v>
+      <c r="K3" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="13"/>
+      <c r="M3" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="N3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="13" t="s">
-        <v>48</v>
+      <c r="O3" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -931,25 +955,29 @@
       <c r="D4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="18" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="I4" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="J4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="13"/>
+      <c r="K4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="19"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="12"/>
     </row>
-    <row r="5" spans="1:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -962,27 +990,39 @@
       <c r="D5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="H5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="13"/>
+      <c r="I5" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="J5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="13"/>
+      <c r="K5" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="L5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="13"/>
+      <c r="M5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -992,26 +1032,36 @@
       <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="13"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="13"/>
+      <c r="I6" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="J6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="L6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="13"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="13"/>
+      <c r="M6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1024,27 +1074,39 @@
       <c r="D7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="13"/>
+      <c r="G7" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="H7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="13"/>
+      <c r="I7" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="J7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="13"/>
+      <c r="K7" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="L7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="13"/>
+      <c r="M7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1057,27 +1119,39 @@
       <c r="D8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="13"/>
+      <c r="G8" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="H8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="13"/>
+      <c r="I8" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="J8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="13"/>
+      <c r="K8" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="L8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="13"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="13"/>
+      <c r="M8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1090,27 +1164,39 @@
       <c r="D9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="H9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="13"/>
+      <c r="I9" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="J9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="13"/>
+      <c r="K9" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="L9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="13"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="13"/>
+      <c r="M9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1123,27 +1209,39 @@
       <c r="D10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="13"/>
+      <c r="G10" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="H10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="13"/>
+      <c r="I10" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="J10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="13"/>
+      <c r="K10" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="L10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="13"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="13"/>
+      <c r="M10" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1156,27 +1254,39 @@
       <c r="D11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="13"/>
+      <c r="G11" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="H11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="13"/>
+      <c r="I11" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="J11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="13"/>
+      <c r="K11" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="L11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="13"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="13"/>
+      <c r="M11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="12" spans="1:15" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1189,25 +1299,37 @@
       <c r="D12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="13"/>
+      <c r="G12" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="H12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="13"/>
+      <c r="I12" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="J12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="13"/>
+      <c r="K12" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="L12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="13"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="13"/>
+      <c r="M12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
